--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3138122.093922969</v>
+        <v>3135870.014211762</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328603.389020028</v>
+        <v>8328603.389020026</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>127.450398726549</v>
+        <v>97.03085908134837</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414557</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>38.09653235049796</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>57.91073356940717</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>142.6796929637941</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>159.7403262583146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.21970892729165</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>46.68696776231172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>14.42881909501614</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>109.0497360705513</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>61.36917500887013</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>206.6028641186427</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>121.8674042714187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.9215867835839</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>26.13627195705873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>178.3456785990318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.02686156550218</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
-        <v>137.7610225486951</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>3.006892987834117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>115.7228684476123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.2851635392052</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939214</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>424.0701624477504</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4373,7 +4373,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757135</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757135</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757135</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="W4" t="n">
-        <v>772.5608581015648</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X4" t="n">
-        <v>772.5608581015648</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>772.5608581015648</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>557.1590183167814</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>550.2135175675779</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X7" t="n">
-        <v>584.3112824859596</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>363.5187033424295</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4829,22 +4829,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2314.592792894641</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.127034633561</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
         <v>1941.127034633561</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.5487792519424</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>712.1972440821821</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.1972440821821</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,52 +5036,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488568</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397315</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360355</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318807</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871884</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F16" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5607,10 +5607,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1920.063992790046</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2343.687142285114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,19 +6251,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2389.155899672379</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,7 +6786,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273905</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273905</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773688</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7151,40 +7151,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,22 +7491,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>45.37941682720908</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.23897475306296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>40.23897475306335</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
-        <v>10.85445046951727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.74112246243936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287557</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="H4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="J4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687962</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617906</v>
+        <v>-811863.8817617901</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658026</v>
+        <v>516880.8639658018</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.863965802</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="E6" t="n">
-        <v>264281.643090613</v>
+        <v>264246.9051651775</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="G6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="H6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725328</v>
       </c>
       <c r="I6" t="n">
-        <v>589694.1048979685</v>
+        <v>589659.3669725328</v>
       </c>
       <c r="J6" t="n">
-        <v>372162.9025006914</v>
+        <v>372128.1645752552</v>
       </c>
       <c r="K6" t="n">
-        <v>589694.1048979689</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="L6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="M6" t="n">
-        <v>504639.0769624569</v>
+        <v>504604.3390370209</v>
       </c>
       <c r="N6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="O6" t="n">
-        <v>589694.1048979686</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="P6" t="n">
-        <v>589694.1048979687</v>
+        <v>589659.3669725332</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26799,10 +26799,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>227.232642894134</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>248.1153058551149</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>228.6122647671838</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>268.2420326896593</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>226.497612397739</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>90.54931640415025</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>179.0226876267254</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.489151044604</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.1912326468617</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>19.10679127039444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.478485573907633e-15</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.688177271642585e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31613,13 +31613,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32233,7 +32233,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817577</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>314.4610577451606</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>537.262354434964</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.5330199802463</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>679.7882761221643</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33506,10 +33506,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,25 +34211,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,19 +34445,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>555.0107214892114</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.4792836591391</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>394.6661099905195</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.5512458942248</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>548.4465640388311</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,19 +38093,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>423.6690094058781</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
